--- a/(new)UPDATED_INCOME_TABLE.xlsx
+++ b/(new)UPDATED_INCOME_TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AU\Winter Intersession 2022\HomeWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAE1CCD-6403-4241-BBCF-2FA55A5E20DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB185EF-3A6D-41A3-9C27-B58DE311EA15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -895,7 +895,9 @@
   </sheetPr>
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1166,363 +1168,363 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="4">
-        <v>23202344</v>
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5">
+        <v>248543</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5">
-        <v>248543</v>
+        <v>55531</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5">
-        <v>55531</v>
+        <v>409577</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5">
-        <v>409577</v>
+        <v>146292</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5">
-        <v>146292</v>
+        <v>3353473</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5">
-        <v>3353473</v>
+        <v>425595</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B8" s="5">
-        <v>425595</v>
+        <v>299819</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5">
-        <v>299819</v>
+        <v>81019</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5">
-        <v>81019</v>
+        <v>153979</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5">
-        <v>153979</v>
+        <v>1226956</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="5">
-        <v>1226956</v>
+        <v>687680</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5">
-        <v>687680</v>
+        <v>92445</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5">
-        <v>92445</v>
+        <v>93785</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5">
-        <v>93785</v>
+        <v>956366</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5">
-        <v>956366</v>
+        <v>423052</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B17" s="5">
-        <v>423052</v>
+        <v>225144</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B18" s="5">
-        <v>225144</v>
+        <v>196495</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B19" s="5">
-        <v>196495</v>
+        <v>239208</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B20" s="5">
-        <v>239208</v>
+        <v>256905</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B21" s="5">
-        <v>256905</v>
+        <v>76045</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B22" s="5">
-        <v>76045</v>
+        <v>451635</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B23" s="5">
-        <v>451635</v>
+        <v>637424</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B24" s="5">
-        <v>637424</v>
+        <v>567450</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B25" s="5">
-        <v>567450</v>
+        <v>415393</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B26" s="5">
-        <v>415393</v>
+        <v>126155</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B27" s="5">
-        <v>126155</v>
+        <v>365899</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B28" s="5">
-        <v>365899</v>
+        <v>59129</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B29" s="5">
-        <v>59129</v>
+        <v>153586</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B30" s="5">
-        <v>153586</v>
+        <v>192228</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B31" s="5">
-        <v>192228</v>
+        <v>94305</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B32" s="5">
-        <v>94305</v>
+        <v>686842</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B33" s="5">
-        <v>686842</v>
+        <v>110696</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B34" s="5">
-        <v>110696</v>
+        <v>1893670</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B35" s="5">
-        <v>1893670</v>
+        <v>659616</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B36" s="5">
-        <v>659616</v>
+        <v>66632</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B37" s="5">
-        <v>66632</v>
+        <v>745000</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B38" s="5">
-        <v>745000</v>
+        <v>211053</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>211053</v>
+        <v>270120</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B40" s="5">
-        <v>270120</v>
+        <v>849818</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B41" s="5">
-        <v>849818</v>
+        <v>65348</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B42" s="5">
-        <v>65348</v>
+        <v>271374</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B43" s="5">
-        <v>271374</v>
+        <v>61732</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B44" s="5">
-        <v>61732</v>
+        <v>421086</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B45" s="5">
-        <v>421086</v>
+        <v>2006662</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="5">
-        <v>2006662</v>
+      <c r="A46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="4">
+        <v>23202344</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
